--- a/app/config/tables/SES/forms/SES/SES.xlsx
+++ b/app/config/tables/SES/forms/SES/SES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE8C8C8-F50D-4AEA-929C-165682B217F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F126B632-BB5C-4332-87A0-9C58C21F469D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
   <si>
     <t>setting_name</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
+  </si>
+  <si>
+    <t>inputAttributes.type</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -806,9 +812,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
@@ -824,9 +830,10 @@
     <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -854,14 +861,17 @@
       <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>37</v>
       </c>
@@ -878,7 +888,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>37</v>
       </c>
@@ -895,17 +905,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>37</v>
       </c>
@@ -922,7 +932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>37</v>
       </c>
@@ -939,21 +949,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>37</v>
       </c>
@@ -970,9 +980,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>82</v>
@@ -983,8 +993,11 @@
       <c r="H12" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>81</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>13</v>
@@ -1005,7 +1018,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
@@ -1300,9 +1313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1407,7 @@
         <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>

--- a/app/config/tables/SES/forms/SES/SES.xlsx
+++ b/app/config/tables/SES/forms/SES/SES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F126B632-BB5C-4332-87A0-9C58C21F469D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4038F0-F888-47EE-AE81-9E280789007B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>Do they have a radio in the compound</t>
   </si>
   <si>
-    <t>Tipo de tecto</t>
-  </si>
-  <si>
     <t>Tipo de casa de banho</t>
   </si>
   <si>
@@ -251,15 +248,6 @@
     <t>Phone number of mother or other</t>
   </si>
   <si>
-    <t>Eles têm eletricidade no moranca?</t>
-  </si>
-  <si>
-    <t>Eles têm um rádio no moranca?</t>
-  </si>
-  <si>
-    <t>A mãe ou o pai têm telemovel?</t>
-  </si>
-  <si>
     <t>Número de telemovel da mãe ou outro</t>
   </si>
   <si>
@@ -321,6 +309,18 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>Tipo de telhado</t>
+  </si>
+  <si>
+    <t>Eles têm eletricidade na morança?</t>
+  </si>
+  <si>
+    <t>Eles têm um rádio na morança?</t>
+  </si>
+  <si>
+    <t>A mãe ou o pai tem telemovel?</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -395,16 +395,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -412,6 +420,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -711,23 +722,23 @@
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -736,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -779,7 +790,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -789,19 +800,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>83</v>
+      <c r="B9" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -814,9 +825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,40 +844,40 @@
     <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>95</v>
+      <c r="J1" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -884,8 +895,8 @@
       <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="H3" t="s">
-        <v>69</v>
+      <c r="H3" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -901,19 +912,21 @@
       <c r="G4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
-        <v>70</v>
+      <c r="H4" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -925,11 +938,11 @@
       <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>73</v>
+      <c r="H7" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -942,26 +955,26 @@
       <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>74</v>
+      <c r="H8" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -973,54 +986,54 @@
       <c r="F11" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>75</v>
+      <c r="H11" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1046,16 +1059,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1075,7 +1088,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -1084,7 +1097,7 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1096,210 +1109,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="8" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="8" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="8" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="8" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="8" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="8" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1325,14 +1339,14 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1348,8 +1362,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>83</v>
+      <c r="A3" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1403,11 +1417,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>82</v>
+      <c r="A8" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1415,10 +1429,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1426,10 +1440,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1437,10 +1451,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1448,10 +1462,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1459,10 +1473,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>

--- a/app/config/tables/SES/forms/SES/SES.xlsx
+++ b/app/config/tables/SES/forms/SES/SES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4038F0-F888-47EE-AE81-9E280789007B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B54EF-C80D-4F9C-B3D2-2ED3B5A80708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>setting_name</t>
   </si>
@@ -113,9 +113,6 @@
     <t>branch_label</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>font-size</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>REGIDC</t>
   </si>
   <si>
-    <t>VISITIDC</t>
-  </si>
-  <si>
     <t>adate</t>
   </si>
   <si>
@@ -321,6 +315,15 @@
   </si>
   <si>
     <t>A mãe ou o pai tem telemovel?</t>
+  </si>
+  <si>
+    <t>GRAVIDA</t>
+  </si>
+  <si>
+    <t>VISITID</t>
+  </si>
+  <si>
+    <t>CRIANCA</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -393,15 +396,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -420,9 +414,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -730,13 +724,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -747,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,7 +784,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -801,18 +795,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -825,9 +819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="F3" activeCellId="1" sqref="D3:D13 F3:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -873,7 +867,7 @@
         <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -884,82 +878,82 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -967,55 +961,55 @@
         <v>13</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>96</v>
+        <v>63</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1060,44 +1054,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1109,212 +1103,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="8" t="str">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="8" t="str">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="8" t="str">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="8" t="str">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="8" t="str">
+      <c r="A6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="8" t="str">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="8" t="str">
+      <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="7" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="8" t="str">
+      <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="8" t="str">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="8" t="str">
+      <c r="A11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>62</v>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="8" t="str">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>63</v>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="8" t="str">
+      <c r="A13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1325,11 +1319,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1333,7 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1349,142 +1343,156 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>79</v>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J11:J12">
+    <sortCondition ref="J11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/SES/forms/SES/SES.xlsx
+++ b/app/config/tables/SES/forms/SES/SES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B54EF-C80D-4F9C-B3D2-2ED3B5A80708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E3D1D5-5874-41A7-8BF7-747C6DB9E3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
   <si>
     <t>setting_name</t>
   </si>
@@ -324,6 +324,24 @@
   </si>
   <si>
     <t>CRIANCA</t>
+  </si>
+  <si>
+    <t>OBSSES</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Comentário</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Socioeconomic status&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Status socioeconomico&lt;b&gt;</t>
   </si>
 </sst>
 </file>
@@ -703,7 +721,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,11 +835,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" activeCellId="1" sqref="D3:D13 F3:F13"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,19 +896,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -898,136 +910,206 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" t="s">
-        <v>90</v>
-      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1319,11 +1401,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,33 +1455,33 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
+      <c r="A4" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>78</v>
+      <c r="A5" t="s">
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
+      <c r="A6" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1407,7 +1489,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -1417,34 +1499,32 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>77</v>
+      <c r="A8" t="s">
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="C10" t="b">
+      <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -1452,36 +1532,36 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="b">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
+      <c r="I13" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -1489,10 +1569,24 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J11:J12">
-    <sortCondition ref="J11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/SES/forms/SES/SES.xlsx
+++ b/app/config/tables/SES/forms/SES/SES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E3D1D5-5874-41A7-8BF7-747C6DB9E3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0395A-C257-4586-B7DF-D2773D16868C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,12 +329,6 @@
     <t>OBSSES</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Comentário</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -342,6 +336,12 @@
   </si>
   <si>
     <t>&lt;b&gt;Status socioeconomico&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Comments to socioeconomic status</t>
+  </si>
+  <si>
+    <t>Comentários ao status socioeconômico</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,13 +896,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
         <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -953,13 +953,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
         <v>101</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1012,13 +1012,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
         <v>101</v>
-      </c>
-      <c r="G13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1083,13 +1083,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
         <v>101</v>
-      </c>
-      <c r="G19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1100,10 +1100,10 @@
         <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">

--- a/app/config/tables/SES/forms/SES/SES.xlsx
+++ b/app/config/tables/SES/forms/SES/SES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0395A-C257-4586-B7DF-D2773D16868C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09339F69-D110-448D-98CB-8C1C12B151E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
